--- a/Formula.xlsx
+++ b/Formula.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tormo\OneDrive\Skrivebord\schule\competitions\teamorange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CC97761-B7CF-45CB-B9B0-82039F26B93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0933EA5A-2C47-4FFB-BA14-635E31BEB973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DA985CF2-244F-40C3-87D1-F5F3A8EB7ACD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>L</t>
   </si>
@@ -55,7 +55,25 @@
     <t>SE*D</t>
   </si>
   <si>
-    <t>&lt;</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Max time per ship per year</t>
+  </si>
+  <si>
+    <t>=&lt;</t>
+  </si>
+  <si>
+    <t>Max tonnage per ship per shippment</t>
+  </si>
+  <si>
+    <t>Max port draught weight</t>
+  </si>
+  <si>
+    <t>ship_load_tonnage&lt;=permissible_tonnage</t>
+  </si>
+  <si>
+    <t>ship_dwt + ship_load_tonnage</t>
   </si>
 </sst>
 </file>
@@ -91,8 +109,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,49 +429,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5777A068-B097-45EC-AB64-32663CD312FE}">
-  <dimension ref="B2:G3"/>
+  <dimension ref="B1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3">
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3">
         <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>66208</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>